--- a/templates/community/RPTU/RPTU_FS_CellDisruption.xlsx
+++ b/templates/community/RPTU/RPTU_FS_CellDisruption.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Martin\Desktop\RPTU\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Martin\Documents\GitHub\Swate-templates_FORK\templates\community\RPTU\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4E580413-9D42-4D9A-BD69-979658B4F3D6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8991217F-041E-4CB3-B438-D848A5E10096}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3825" yWindow="2445" windowWidth="22545" windowHeight="14295" activeTab="1" xr2:uid="{53E4735C-14F8-482F-9DAC-5F38B5221EAD}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21120" xr2:uid="{53E4735C-14F8-482F-9DAC-5F38B5221EAD}"/>
   </bookViews>
   <sheets>
     <sheet name="CellDisruption" sheetId="1" r:id="rId1"/>
@@ -337,9 +337,6 @@
     <t>Sample to label your output</t>
   </si>
   <si>
-    <t>e.g. your protein coc</t>
-  </si>
-  <si>
     <t>e.g. your protein state</t>
   </si>
   <si>
@@ -542,6 +539,9 @@
   </si>
   <si>
     <t>RPTU - MBS, cell disruption</t>
+  </si>
+  <si>
+    <t>e.g. your protein con</t>
   </si>
 </sst>
 </file>
@@ -1277,8 +1277,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6C5A3505-C9F9-4B7A-AFA0-928B28AB9D77}">
   <dimension ref="A1:AX21"/>
   <sheetViews>
-    <sheetView zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+    <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="A27" sqref="A27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1455,7 +1455,7 @@
         <v>38</v>
       </c>
       <c r="V2" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
     </row>
     <row r="3" spans="1:22" x14ac:dyDescent="0.25">
@@ -1523,7 +1523,7 @@
         <v>38</v>
       </c>
       <c r="V3" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
     </row>
     <row r="4" spans="1:22" x14ac:dyDescent="0.25">
@@ -1591,7 +1591,7 @@
         <v>38</v>
       </c>
       <c r="V4" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
     </row>
     <row r="5" spans="1:22" x14ac:dyDescent="0.25">
@@ -1659,7 +1659,7 @@
         <v>38</v>
       </c>
       <c r="V5" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
     </row>
     <row r="6" spans="1:22" x14ac:dyDescent="0.25">
@@ -1727,7 +1727,7 @@
         <v>38</v>
       </c>
       <c r="V6" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
     </row>
     <row r="7" spans="1:22" x14ac:dyDescent="0.25">
@@ -1795,7 +1795,7 @@
         <v>38</v>
       </c>
       <c r="V7" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
     </row>
     <row r="8" spans="1:22" x14ac:dyDescent="0.25">
@@ -1863,7 +1863,7 @@
         <v>38</v>
       </c>
       <c r="V8" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
     </row>
     <row r="9" spans="1:22" x14ac:dyDescent="0.25">
@@ -1931,7 +1931,7 @@
         <v>38</v>
       </c>
       <c r="V9" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
     </row>
     <row r="10" spans="1:22" x14ac:dyDescent="0.25">
@@ -1999,7 +1999,7 @@
         <v>38</v>
       </c>
       <c r="V10" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
     </row>
     <row r="11" spans="1:22" x14ac:dyDescent="0.25">
@@ -2067,7 +2067,7 @@
         <v>38</v>
       </c>
       <c r="V11" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
     </row>
     <row r="12" spans="1:22" x14ac:dyDescent="0.25">
@@ -2135,7 +2135,7 @@
         <v>38</v>
       </c>
       <c r="V12" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
     </row>
     <row r="13" spans="1:22" x14ac:dyDescent="0.25">
@@ -2203,7 +2203,7 @@
         <v>38</v>
       </c>
       <c r="V13" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
     </row>
     <row r="14" spans="1:22" x14ac:dyDescent="0.25">
@@ -2271,7 +2271,7 @@
         <v>38</v>
       </c>
       <c r="V14" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
     </row>
     <row r="15" spans="1:22" x14ac:dyDescent="0.25">
@@ -2339,7 +2339,7 @@
         <v>38</v>
       </c>
       <c r="V15" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
     </row>
     <row r="16" spans="1:22" x14ac:dyDescent="0.25">
@@ -2407,7 +2407,7 @@
         <v>38</v>
       </c>
       <c r="V16" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
     </row>
     <row r="17" spans="1:50" x14ac:dyDescent="0.25">
@@ -2475,7 +2475,7 @@
         <v>38</v>
       </c>
       <c r="V17" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
     </row>
     <row r="19" spans="1:50" ht="105" x14ac:dyDescent="0.25">
@@ -2515,7 +2515,7 @@
         <v>57</v>
       </c>
       <c r="K20" s="8" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="L20" s="8" t="s">
         <v>60</v>
@@ -2524,7 +2524,7 @@
         <v>60</v>
       </c>
       <c r="N20" s="8" t="s">
-        <v>69</v>
+        <v>137</v>
       </c>
       <c r="O20" s="8" t="s">
         <v>57</v>
@@ -2650,7 +2650,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{868E3BD3-BBC8-44FA-83F0-C166705EBDD0}">
   <dimension ref="A1:D27"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
@@ -2662,125 +2662,125 @@
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" s="13" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="B1" s="17" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" s="14" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="B2" s="18" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" s="14" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="B3" s="18" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
     </row>
     <row r="4" spans="1:4" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="14" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="B4" s="18" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5" s="14" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="B5" s="18" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A6" s="14" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="B6" s="18" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A7" s="15" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="B7" s="19"/>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A8" s="14" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="B8" s="20" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A9" s="14" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="B9" s="18" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A10" s="14" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="B10" s="18" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A11" s="15" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="B11" s="19"/>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A12" s="14" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="B12" s="20" t="s">
+        <v>119</v>
+      </c>
+      <c r="C12" t="s">
+        <v>134</v>
+      </c>
+      <c r="D12" t="s">
         <v>120</v>
-      </c>
-      <c r="C12" t="s">
-        <v>135</v>
-      </c>
-      <c r="D12" t="s">
-        <v>121</v>
       </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A13" s="14" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="B13" s="18" t="s">
+        <v>121</v>
+      </c>
+      <c r="C13" t="s">
+        <v>135</v>
+      </c>
+      <c r="D13" t="s">
         <v>122</v>
-      </c>
-      <c r="C13" t="s">
-        <v>136</v>
-      </c>
-      <c r="D13" t="s">
-        <v>123</v>
       </c>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A14" s="14" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="B14" s="18" t="s">
         <v>26</v>
       </c>
       <c r="C14" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="D14" t="s">
         <v>26</v>
@@ -2788,103 +2788,103 @@
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A15" s="15" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="B15" s="19"/>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A16" s="14" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="B16" s="20" t="s">
+        <v>123</v>
+      </c>
+      <c r="C16" t="s">
         <v>124</v>
       </c>
-      <c r="C16" t="s">
+      <c r="D16" t="s">
         <v>125</v>
-      </c>
-      <c r="D16" t="s">
-        <v>126</v>
       </c>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A17" s="14" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="B17" s="18" t="s">
+        <v>126</v>
+      </c>
+      <c r="C17" t="s">
         <v>127</v>
       </c>
-      <c r="C17" t="s">
+      <c r="D17" t="s">
         <v>128</v>
-      </c>
-      <c r="D17" t="s">
-        <v>129</v>
       </c>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A18" s="14" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="B18" s="18"/>
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A19" s="14" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="B19" s="22" t="s">
+        <v>129</v>
+      </c>
+      <c r="C19" s="23" t="s">
         <v>130</v>
       </c>
-      <c r="C19" s="23" t="s">
+      <c r="D19" s="23" t="s">
         <v>131</v>
-      </c>
-      <c r="D19" s="23" t="s">
-        <v>132</v>
       </c>
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A20" s="14" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="B20" s="18"/>
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A21" s="14" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="B21" s="18"/>
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A22" s="14" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="B22" s="18"/>
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A23" s="14" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="B23" s="18"/>
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A24" s="14" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="B24" s="18"/>
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A25" s="14" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="B25" s="18"/>
     </row>
     <row r="26" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A26" s="14" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="B26" s="18"/>
     </row>
     <row r="27" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A27" s="16" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="B27" s="21"/>
     </row>

--- a/templates/community/RPTU/RPTU_FS_CellDisruption.xlsx
+++ b/templates/community/RPTU/RPTU_FS_CellDisruption.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24931"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Martin\Documents\GitHub\Swate-templates_FORK\templates\community\RPTU\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Stella Eggels\Documents\GitHub\Swate-templates\templates\community\RPTU\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8991217F-041E-4CB3-B438-D848A5E10096}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{36D523A4-EA1A-441A-AB8B-F0C1E4A1DA1A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21120" xr2:uid="{53E4735C-14F8-482F-9DAC-5F38B5221EAD}"/>
+    <workbookView xWindow="22932" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="1" xr2:uid="{53E4735C-14F8-482F-9DAC-5F38B5221EAD}"/>
   </bookViews>
   <sheets>
     <sheet name="CellDisruption" sheetId="1" r:id="rId1"/>
@@ -51,75 +51,75 @@
   <commentList>
     <comment ref="A1" authorId="0" shapeId="0" xr:uid="{DE1DB551-2B03-4174-80B4-3597A67E6847}">
       <text>
-        <t>[Threaded comment]
-Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
-Comment:
+        <t>[Kommentarthread]
+Ihre Version von Excel gestattet Ihnen das Lesen dieses Kommentarthreads. Jegliche Bearbeitungen daran werden jedoch entfernt, wenn die Datei in einer neueren Version von Excel geöffnet wird. Weitere Informationen: https://go.microsoft.com/fwlink/?linkid=870924.
+Kommentar:
     The unique identifier of this template. It will be auto generated.
-Reply:
+Antwort:
     id=559a486c-3f1a-458a-ad5d-a28eb58602ed</t>
       </text>
     </comment>
     <comment ref="A2" authorId="1" shapeId="0" xr:uid="{9A8BCBBC-C10F-4151-91B6-D930677C8FEB}">
       <text>
-        <t>[Threaded comment]
-Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
-Comment:
+        <t>[Kommentarthread]
+Ihre Version von Excel gestattet Ihnen das Lesen dieses Kommentarthreads. Jegliche Bearbeitungen daran werden jedoch entfernt, wenn die Datei in einer neueren Version von Excel geöffnet wird. Weitere Informationen: https://go.microsoft.com/fwlink/?linkid=870924.
+Kommentar:
     The name of the Swate template.</t>
       </text>
     </comment>
     <comment ref="A3" authorId="2" shapeId="0" xr:uid="{B3D2E854-2A32-47D2-BC7E-78C4DF596728}">
       <text>
-        <t>[Threaded comment]
-Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
-Comment:
+        <t>[Kommentarthread]
+Ihre Version von Excel gestattet Ihnen das Lesen dieses Kommentarthreads. Jegliche Bearbeitungen daran werden jedoch entfernt, wenn die Datei in einer neueren Version von Excel geöffnet wird. Weitere Informationen: https://go.microsoft.com/fwlink/?linkid=870924.
+Kommentar:
     The current version of this template in SemVer notation.</t>
       </text>
     </comment>
     <comment ref="A4" authorId="3" shapeId="0" xr:uid="{79767631-B6FA-4645-8FC5-442B8CDC1A13}">
       <text>
-        <t>[Threaded comment]
-Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
-Comment:
+        <t>[Kommentarthread]
+Ihre Version von Excel gestattet Ihnen das Lesen dieses Kommentarthreads. Jegliche Bearbeitungen daran werden jedoch entfernt, wenn die Datei in einer neueren Version von Excel geöffnet wird. Weitere Informationen: https://go.microsoft.com/fwlink/?linkid=870924.
+Kommentar:
     The description of this template. Use few sentences for succinctness.</t>
       </text>
     </comment>
     <comment ref="A5" authorId="4" shapeId="0" xr:uid="{76CA47A3-8DC0-4D11-853E-6770F3ED952C}">
       <text>
-        <t>[Threaded comment]
-Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
-Comment:
+        <t>[Kommentarthread]
+Ihre Version von Excel gestattet Ihnen das Lesen dieses Kommentarthreads. Jegliche Bearbeitungen daran werden jedoch entfernt, wenn die Datei in einer neueren Version von Excel geöffnet wird. Weitere Informationen: https://go.microsoft.com/fwlink/?linkid=870924.
+Kommentar:
     The name of the template associated organisation. "DataPLANT" will trigger the "DataPLANT" batch of honor for the template.</t>
       </text>
     </comment>
     <comment ref="A6" authorId="5" shapeId="0" xr:uid="{5BBC9D5B-D4B6-4173-BB25-8B6C22413CC6}">
       <text>
-        <t>[Threaded comment]
-Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
-Comment:
+        <t>[Kommentarthread]
+Ihre Version von Excel gestattet Ihnen das Lesen dieses Kommentarthreads. Jegliche Bearbeitungen daran werden jedoch entfernt, wenn die Datei in einer neueren Version von Excel geöffnet wird. Weitere Informationen: https://go.microsoft.com/fwlink/?linkid=870924.
+Kommentar:
     The name of the Swate annotation table in the workbook of the template's excel file.</t>
       </text>
     </comment>
     <comment ref="A7" authorId="6" shapeId="0" xr:uid="{4865ADE1-A84D-414A-BC08-4A164976D956}">
       <text>
-        <t>[Threaded comment]
-Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
-Comment:
+        <t>[Kommentarthread]
+Ihre Version von Excel gestattet Ihnen das Lesen dieses Kommentarthreads. Jegliche Bearbeitungen daran werden jedoch entfernt, wenn die Datei in einer neueren Version von Excel geöffnet wird. Weitere Informationen: https://go.microsoft.com/fwlink/?linkid=870924.
+Kommentar:
     A list of all ERs (endpoint repositories) targeted with this template. ERs are realized as Terms.</t>
       </text>
     </comment>
     <comment ref="A11" authorId="7" shapeId="0" xr:uid="{180AB5CD-9B19-4E15-99A6-828D57FA9A31}">
       <text>
-        <t>[Threaded comment]
-Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
-Comment:
+        <t>[Kommentarthread]
+Ihre Version von Excel gestattet Ihnen das Lesen dieses Kommentarthreads. Jegliche Bearbeitungen daran werden jedoch entfernt, wenn die Datei in einer neueren Version von Excel geöffnet wird. Weitere Informationen: https://go.microsoft.com/fwlink/?linkid=870924.
+Kommentar:
     A list of all tags associated with this template. Tags are realized as Terms.</t>
       </text>
     </comment>
     <comment ref="A15" authorId="8" shapeId="0" xr:uid="{E967DD39-B6B7-4843-AFF6-39B6FC870815}">
       <text>
-        <t>[Threaded comment]
-Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
-Comment:
+        <t>[Kommentarthread]
+Ihre Version von Excel gestattet Ihnen das Lesen dieses Kommentarthreads. Jegliche Bearbeitungen daran werden jedoch entfernt, wenn die Datei in einer neueren Version von Excel geöffnet wird. Weitere Informationen: https://go.microsoft.com/fwlink/?linkid=870924.
+Kommentar:
     The author(s) of this template.</t>
       </text>
     </comment>
@@ -128,7 +128,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="425" uniqueCount="138">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="421" uniqueCount="135">
   <si>
     <t>Source Name</t>
   </si>
@@ -478,15 +478,6 @@
     <t>RPTU - MBS</t>
   </si>
   <si>
-    <t>PRIDE</t>
-  </si>
-  <si>
-    <t>http://purl.obolibrary.org/obo/DPBO_1000098</t>
-  </si>
-  <si>
-    <t>DPBO</t>
-  </si>
-  <si>
     <t>Algae</t>
   </si>
   <si>
@@ -532,16 +523,16 @@
     <t>annotationTableTameFish51</t>
   </si>
   <si>
-    <t>extraction protocol</t>
-  </si>
-  <si>
-    <t>http://purl.obolibrary.org/obo/DPBO_1000171</t>
-  </si>
-  <si>
     <t>RPTU - MBS, cell disruption</t>
   </si>
   <si>
     <t>e.g. your protein con</t>
+  </si>
+  <si>
+    <t>extraction</t>
+  </si>
+  <si>
+    <t>http://purl.obolibrary.org/obo/OBI_0302884</t>
   </si>
 </sst>
 </file>
@@ -801,8 +792,8 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1"/>
   </cellXfs>
   <cellStyles count="2">
-    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Link" xfId="1" builtinId="8"/>
+    <cellStyle name="Standard" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="19">
     <dxf>
@@ -913,9 +904,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 2013 – 2022-Design">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2013 – 2022">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -953,7 +944,7 @@
         <a:srgbClr val="954F72"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2013 – 2022">
       <a:majorFont>
         <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
@@ -1059,7 +1050,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2013 – 2022">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -1201,7 +1192,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office 2013 - 2022 Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -1277,52 +1268,52 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6C5A3505-C9F9-4B7A-AFA0-928B28AB9D77}">
   <dimension ref="A1:AX21"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+    <sheetView zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
       <selection activeCell="A27" sqref="A27"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="17" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="32.7109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="32.6640625" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="33" hidden="1" customWidth="1"/>
     <col min="4" max="4" width="40" hidden="1" customWidth="1"/>
-    <col min="5" max="5" width="34.85546875" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="33.42578125" hidden="1" customWidth="1"/>
-    <col min="7" max="7" width="40.140625" hidden="1" customWidth="1"/>
-    <col min="8" max="8" width="43.5703125" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="33.42578125" hidden="1" customWidth="1"/>
-    <col min="10" max="10" width="40.140625" hidden="1" customWidth="1"/>
-    <col min="11" max="11" width="44.28515625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="34.88671875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="33.44140625" hidden="1" customWidth="1"/>
+    <col min="7" max="7" width="40.109375" hidden="1" customWidth="1"/>
+    <col min="8" max="8" width="43.5546875" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="33.44140625" hidden="1" customWidth="1"/>
+    <col min="10" max="10" width="40.109375" hidden="1" customWidth="1"/>
+    <col min="11" max="11" width="44.33203125" bestFit="1" customWidth="1"/>
     <col min="12" max="12" width="33" hidden="1" customWidth="1"/>
     <col min="13" max="13" width="40" hidden="1" customWidth="1"/>
-    <col min="14" max="14" width="64.28515625" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="64.33203125" bestFit="1" customWidth="1"/>
     <col min="15" max="15" width="35" hidden="1" customWidth="1"/>
-    <col min="16" max="16" width="42.140625" hidden="1" customWidth="1"/>
-    <col min="17" max="17" width="35.140625" hidden="1" customWidth="1"/>
-    <col min="18" max="18" width="22.28515625" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="37.85546875" hidden="1" customWidth="1"/>
-    <col min="20" max="20" width="35.140625" hidden="1" customWidth="1"/>
-    <col min="21" max="21" width="22.28515625" hidden="1" customWidth="1"/>
-    <col min="22" max="22" width="16.5703125" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="42.109375" hidden="1" customWidth="1"/>
+    <col min="17" max="17" width="35.109375" hidden="1" customWidth="1"/>
+    <col min="18" max="18" width="22.33203125" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="37.88671875" hidden="1" customWidth="1"/>
+    <col min="20" max="20" width="35.109375" hidden="1" customWidth="1"/>
+    <col min="21" max="21" width="22.33203125" hidden="1" customWidth="1"/>
+    <col min="22" max="22" width="16.5546875" bestFit="1" customWidth="1"/>
     <col min="23" max="23" width="22" hidden="1" customWidth="1"/>
-    <col min="24" max="24" width="22.28515625" hidden="1" customWidth="1"/>
-    <col min="25" max="25" width="16.5703125" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="22.33203125" hidden="1" customWidth="1"/>
+    <col min="25" max="25" width="16.5546875" bestFit="1" customWidth="1"/>
     <col min="26" max="26" width="33" hidden="1" customWidth="1"/>
-    <col min="27" max="27" width="22.28515625" hidden="1" customWidth="1"/>
-    <col min="28" max="28" width="19.85546875" bestFit="1" customWidth="1"/>
-    <col min="29" max="29" width="15.7109375" hidden="1" customWidth="1"/>
-    <col min="30" max="30" width="37.28515625" hidden="1" customWidth="1"/>
-    <col min="31" max="31" width="16.5703125" hidden="1" customWidth="1"/>
-    <col min="32" max="32" width="16.5703125" bestFit="1" customWidth="1"/>
-    <col min="33" max="33" width="28.5703125" hidden="1" customWidth="1"/>
+    <col min="27" max="27" width="22.33203125" hidden="1" customWidth="1"/>
+    <col min="28" max="28" width="19.88671875" bestFit="1" customWidth="1"/>
+    <col min="29" max="29" width="15.6640625" hidden="1" customWidth="1"/>
+    <col min="30" max="30" width="37.33203125" hidden="1" customWidth="1"/>
+    <col min="31" max="31" width="16.5546875" hidden="1" customWidth="1"/>
+    <col min="32" max="32" width="16.5546875" bestFit="1" customWidth="1"/>
+    <col min="33" max="33" width="28.5546875" hidden="1" customWidth="1"/>
     <col min="34" max="34" width="0" hidden="1" customWidth="1"/>
-    <col min="35" max="36" width="15.7109375" bestFit="1" customWidth="1"/>
+    <col min="35" max="36" width="15.6640625" bestFit="1" customWidth="1"/>
     <col min="37" max="37" width="0" hidden="1" customWidth="1"/>
-    <col min="38" max="38" width="15.7109375" bestFit="1" customWidth="1"/>
+    <col min="38" max="38" width="15.6640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1390,7 +1381,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="2" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>22</v>
       </c>
@@ -1458,7 +1449,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="3" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>39</v>
       </c>
@@ -1526,7 +1517,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="4" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>40</v>
       </c>
@@ -1594,7 +1585,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="5" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>41</v>
       </c>
@@ -1662,7 +1653,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="6" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>42</v>
       </c>
@@ -1730,7 +1721,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="7" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>43</v>
       </c>
@@ -1798,7 +1789,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="8" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>44</v>
       </c>
@@ -1866,7 +1857,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="9" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>45</v>
       </c>
@@ -1934,7 +1925,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="10" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>46</v>
       </c>
@@ -2002,7 +1993,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="11" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>47</v>
       </c>
@@ -2070,7 +2061,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="12" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
         <v>48</v>
       </c>
@@ -2138,7 +2129,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="13" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
         <v>49</v>
       </c>
@@ -2206,7 +2197,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="14" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
         <v>50</v>
       </c>
@@ -2274,7 +2265,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="15" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
         <v>51</v>
       </c>
@@ -2342,7 +2333,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="16" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
         <v>52</v>
       </c>
@@ -2410,7 +2401,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="17" spans="1:50" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:50" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
         <v>53</v>
       </c>
@@ -2478,12 +2469,12 @@
         <v>85</v>
       </c>
     </row>
-    <row r="19" spans="1:50" ht="105" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:50" ht="72" x14ac:dyDescent="0.3">
       <c r="A19" s="6" t="s">
         <v>54</v>
       </c>
     </row>
-    <row r="20" spans="1:50" s="2" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:50" s="2" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A20" s="7" t="s">
         <v>55</v>
       </c>
@@ -2524,7 +2515,7 @@
         <v>60</v>
       </c>
       <c r="N20" s="8" t="s">
-        <v>137</v>
+        <v>132</v>
       </c>
       <c r="O20" s="8" t="s">
         <v>57</v>
@@ -2583,7 +2574,7 @@
       <c r="AW20"/>
       <c r="AX20"/>
     </row>
-    <row r="21" spans="1:50" s="2" customFormat="1" ht="75" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:50" s="2" customFormat="1" ht="72" x14ac:dyDescent="0.3">
       <c r="A21" s="10" t="s">
         <v>65</v>
       </c>
@@ -2650,17 +2641,18 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{868E3BD3-BBC8-44FA-83F0-C166705EBDD0}">
   <dimension ref="A1:D27"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C16" sqref="C16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="35.140625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="57.140625" customWidth="1"/>
+    <col min="1" max="1" width="35.109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="57.109375" customWidth="1"/>
+    <col min="3" max="3" width="39.6640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A1" s="13" t="s">
         <v>86</v>
       </c>
@@ -2668,15 +2660,15 @@
         <v>113</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A2" s="14" t="s">
         <v>87</v>
       </c>
       <c r="B2" s="18" t="s">
-        <v>136</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A3" s="14" t="s">
         <v>88</v>
       </c>
@@ -2684,15 +2676,15 @@
         <v>114</v>
       </c>
     </row>
-    <row r="4" spans="1:4" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:4" ht="50.1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A4" s="14" t="s">
         <v>89</v>
       </c>
       <c r="B4" s="18" t="s">
-        <v>132</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A5" s="14" t="s">
         <v>90</v>
       </c>
@@ -2700,189 +2692,180 @@
         <v>115</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A6" s="14" t="s">
         <v>91</v>
       </c>
       <c r="B6" s="18" t="s">
-        <v>133</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A7" s="15" t="s">
         <v>92</v>
       </c>
       <c r="B7" s="19"/>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A8" s="14" t="s">
         <v>93</v>
       </c>
-      <c r="B8" s="20" t="s">
-        <v>116</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B8" s="20"/>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A9" s="14" t="s">
         <v>94</v>
       </c>
-      <c r="B9" s="18" t="s">
-        <v>117</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B9" s="18"/>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A10" s="14" t="s">
         <v>95</v>
       </c>
-      <c r="B10" s="18" t="s">
-        <v>118</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B10" s="18"/>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A11" s="15" t="s">
         <v>96</v>
       </c>
       <c r="B11" s="19"/>
     </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A12" s="14" t="s">
         <v>97</v>
       </c>
       <c r="B12" s="20" t="s">
-        <v>119</v>
+        <v>116</v>
       </c>
       <c r="C12" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="D12" t="s">
-        <v>120</v>
-      </c>
-    </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A13" s="14" t="s">
         <v>98</v>
       </c>
       <c r="B13" s="18" t="s">
-        <v>121</v>
+        <v>118</v>
       </c>
       <c r="C13" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="D13" t="s">
-        <v>122</v>
-      </c>
-    </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A14" s="14" t="s">
         <v>99</v>
       </c>
       <c r="B14" s="18" t="s">
         <v>26</v>
       </c>
-      <c r="C14" t="s">
-        <v>118</v>
-      </c>
       <c r="D14" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A15" s="15" t="s">
         <v>100</v>
       </c>
       <c r="B15" s="19"/>
     </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A16" s="14" t="s">
         <v>101</v>
       </c>
       <c r="B16" s="20" t="s">
-        <v>123</v>
+        <v>120</v>
       </c>
       <c r="C16" t="s">
-        <v>124</v>
+        <v>121</v>
       </c>
       <c r="D16" t="s">
-        <v>125</v>
-      </c>
-    </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A17" s="14" t="s">
         <v>102</v>
       </c>
       <c r="B17" s="18" t="s">
-        <v>126</v>
+        <v>123</v>
       </c>
       <c r="C17" t="s">
-        <v>127</v>
+        <v>124</v>
       </c>
       <c r="D17" t="s">
-        <v>128</v>
-      </c>
-    </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A18" s="14" t="s">
         <v>103</v>
       </c>
       <c r="B18" s="18"/>
     </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A19" s="14" t="s">
         <v>104</v>
       </c>
       <c r="B19" s="22" t="s">
-        <v>129</v>
+        <v>126</v>
       </c>
       <c r="C19" s="23" t="s">
-        <v>130</v>
+        <v>127</v>
       </c>
       <c r="D19" s="23" t="s">
-        <v>131</v>
-      </c>
-    </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A20" s="14" t="s">
         <v>105</v>
       </c>
       <c r="B20" s="18"/>
     </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A21" s="14" t="s">
         <v>106</v>
       </c>
       <c r="B21" s="18"/>
     </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A22" s="14" t="s">
         <v>107</v>
       </c>
       <c r="B22" s="18"/>
     </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A23" s="14" t="s">
         <v>108</v>
       </c>
       <c r="B23" s="18"/>
     </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A24" s="14" t="s">
         <v>109</v>
       </c>
       <c r="B24" s="18"/>
     </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A25" s="14" t="s">
         <v>110</v>
       </c>
       <c r="B25" s="18"/>
     </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A26" s="14" t="s">
         <v>111</v>
       </c>
       <c r="B26" s="18"/>
     </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A27" s="16" t="s">
         <v>112</v>
       </c>

--- a/templates/community/RPTU/RPTU_FS_CellDisruption.xlsx
+++ b/templates/community/RPTU/RPTU_FS_CellDisruption.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Stella Eggels\Documents\GitHub\Swate-templates\templates\community\RPTU\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{36D523A4-EA1A-441A-AB8B-F0C1E4A1DA1A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5EB26D51-088D-4866-8C9D-0E0A244B968F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="22932" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="1" xr2:uid="{53E4735C-14F8-482F-9DAC-5F38B5221EAD}"/>
+    <workbookView xWindow="336" yWindow="864" windowWidth="17280" windowHeight="8964" activeTab="1" xr2:uid="{53E4735C-14F8-482F-9DAC-5F38B5221EAD}"/>
   </bookViews>
   <sheets>
     <sheet name="CellDisruption" sheetId="1" r:id="rId1"/>
@@ -532,7 +532,7 @@
     <t>extraction</t>
   </si>
   <si>
-    <t>http://purl.obolibrary.org/obo/OBI_0302884</t>
+    <t>OBI:0302884</t>
   </si>
 </sst>
 </file>
@@ -2642,7 +2642,7 @@
   <dimension ref="A1:D27"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C16" sqref="C16"/>
+      <selection activeCell="C9" sqref="C9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>

--- a/templates/community/RPTU/RPTU_FS_CellDisruption.xlsx
+++ b/templates/community/RPTU/RPTU_FS_CellDisruption.xlsx
@@ -1,20 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27425"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Stella Eggels\Documents\GitHub\Swate-templates\templates\community\RPTU\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5EB26D51-088D-4866-8C9D-0E0A244B968F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B41C27A4-A829-422A-851F-14EEC530C208}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="336" yWindow="864" windowWidth="17280" windowHeight="8964" activeTab="1" xr2:uid="{53E4735C-14F8-482F-9DAC-5F38B5221EAD}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="1" xr2:uid="{53E4735C-14F8-482F-9DAC-5F38B5221EAD}"/>
   </bookViews>
   <sheets>
     <sheet name="CellDisruption" sheetId="1" r:id="rId1"/>
-    <sheet name="SwateTemplateMetadata" sheetId="3" r:id="rId2"/>
+    <sheet name="isa_template" sheetId="3" r:id="rId2"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
